--- a/data/trans_dic/P27F_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27F_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,27</t>
+          <t>1,89; 9,75</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 20,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 13,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,58</t>
+          <t>0,18; 2,14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 1,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 1,61</t>
         </is>
       </c>
     </row>
@@ -656,17 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,61</t>
+          <t>0,0; 1,69</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -729,28 +1016,1138 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,72</t>
+          <t>0,64; 3,66</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 3,64</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 2,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 4,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir atención médica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,84%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21817</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40344</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>62161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8453; 43600</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11803; 133954</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28680; 150112</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9277</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17323</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1939; 22690</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2648; 21053</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6942; 34541</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4783</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8901</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13982</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15942</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2683; 21723</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19267</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37662</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7000; 40204</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8204; 35858</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21765; 64865</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52376</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>73672</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>126048</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30608; 81788</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38902; 172245</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>84998; 224823</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>